--- a/TNR_JDD/JDD.TR.BTR.xlsx
+++ b/TNR_JDD/JDD.TR.BTR.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="459">
   <si>
     <t>Date</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Numéro d'ordre du numéro de BT</t>
+  </si>
+  <si>
+    <t>Démarre à 1</t>
   </si>
   <si>
     <t>ID_CODSIT</t>
@@ -3814,13 +3817,16 @@
       <c r="E8" s="21" t="s">
         <v>27</v>
       </c>
+      <c r="G8" s="19" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>30</v>
@@ -3829,15 +3835,15 @@
         <v>31</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>26</v>
@@ -3851,13 +3857,13 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>27</v>
@@ -3868,13 +3874,13 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>27</v>
@@ -3885,27 +3891,27 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>30</v>
@@ -3914,15 +3920,15 @@
         <v>27</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>26</v>
@@ -3936,10 +3942,10 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>26</v>
@@ -3950,10 +3956,10 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>26</v>
@@ -3964,24 +3970,24 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>26</v>
@@ -3995,24 +4001,24 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>26</v>
@@ -4026,10 +4032,10 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>26</v>
@@ -4040,13 +4046,13 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>27</v>
@@ -4057,10 +4063,10 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>26</v>
@@ -4074,10 +4080,10 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>30</v>
@@ -4091,41 +4097,41 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>27</v>
@@ -4136,10 +4142,10 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>26</v>
@@ -4151,15 +4157,15 @@
         <v>27</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>30</v>
@@ -4173,10 +4179,10 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>30</v>
@@ -4185,18 +4191,18 @@
         <v>27</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>27</v>
@@ -4204,13 +4210,13 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>27</v>
@@ -4218,10 +4224,10 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>26</v>
@@ -4232,13 +4238,13 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>27</v>
@@ -4246,13 +4252,13 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>27</v>
@@ -4260,16 +4266,16 @@
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>27</v>
@@ -4277,10 +4283,10 @@
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>26</v>
@@ -4291,10 +4297,10 @@
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>26</v>
@@ -4305,10 +4311,10 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>26</v>
@@ -4322,10 +4328,10 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>26</v>
@@ -4339,10 +4345,10 @@
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>26</v>
@@ -4356,10 +4362,10 @@
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>26</v>
@@ -4373,10 +4379,10 @@
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>26</v>
@@ -4390,10 +4396,10 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>26</v>
@@ -4407,10 +4413,10 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>26</v>
@@ -4424,10 +4430,10 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>26</v>
@@ -4441,10 +4447,10 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>26</v>
@@ -4458,10 +4464,10 @@
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>26</v>
@@ -4475,27 +4481,27 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>27</v>
@@ -4503,13 +4509,13 @@
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>27</v>
@@ -4517,13 +4523,13 @@
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>27</v>
@@ -4531,13 +4537,13 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>27</v>
@@ -4545,13 +4551,13 @@
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>27</v>
@@ -4559,13 +4565,13 @@
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>27</v>
@@ -4573,13 +4579,13 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>27</v>
@@ -4587,10 +4593,10 @@
     </row>
     <row r="58">
       <c r="A58" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>26</v>
@@ -4601,27 +4607,27 @@
     </row>
     <row r="59">
       <c r="A59" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>31</v>
@@ -4632,24 +4638,24 @@
     </row>
     <row r="61">
       <c r="A61" s="18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>26</v>
@@ -4663,16 +4669,16 @@
     </row>
     <row r="63">
       <c r="A63" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>27</v>
@@ -4680,16 +4686,16 @@
     </row>
     <row r="64">
       <c r="A64" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E64" s="21" t="s">
         <v>27</v>
@@ -4697,13 +4703,13 @@
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>27</v>
@@ -4711,16 +4717,16 @@
     </row>
     <row r="66" ht="84.75" customHeight="1">
       <c r="A66" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E66" s="21" t="s">
         <v>27</v>
@@ -4728,13 +4734,13 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D67" s="22" t="s">
         <v>31</v>
@@ -4745,13 +4751,13 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>31</v>
@@ -4760,18 +4766,18 @@
         <v>27</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E69" s="21" t="s">
         <v>27</v>
@@ -4779,13 +4785,13 @@
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>27</v>
@@ -4793,13 +4799,13 @@
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>27</v>
@@ -4807,13 +4813,13 @@
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>27</v>
@@ -4821,10 +4827,10 @@
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>26</v>
@@ -4835,10 +4841,10 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>26</v>
@@ -4847,15 +4853,15 @@
         <v>27</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>26</v>
@@ -4864,18 +4870,18 @@
         <v>27</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>27</v>
@@ -4883,16 +4889,16 @@
     </row>
     <row r="77">
       <c r="A77" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>27</v>
@@ -4900,10 +4906,10 @@
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>30</v>
@@ -4917,13 +4923,13 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>27</v>
@@ -4931,13 +4937,13 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E80" s="21" t="s">
         <v>27</v>
@@ -4945,13 +4951,13 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>27</v>
@@ -4959,13 +4965,13 @@
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>27</v>
@@ -4973,13 +4979,13 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E83" s="21" t="s">
         <v>27</v>
@@ -4987,13 +4993,13 @@
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E84" s="21" t="s">
         <v>27</v>
@@ -5001,10 +5007,10 @@
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>26</v>
@@ -5018,10 +5024,10 @@
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>26</v>
@@ -5035,13 +5041,13 @@
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E87" s="21" t="s">
         <v>27</v>
@@ -5049,13 +5055,13 @@
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>27</v>
@@ -5063,13 +5069,13 @@
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>27</v>
@@ -5077,13 +5083,13 @@
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E90" s="21" t="s">
         <v>27</v>
@@ -5091,13 +5097,13 @@
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E91" s="21" t="s">
         <v>27</v>
@@ -5105,13 +5111,13 @@
     </row>
     <row r="92">
       <c r="A92" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="21" t="s">
@@ -5120,30 +5126,30 @@
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" ht="93.0" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>27</v>
@@ -5151,10 +5157,10 @@
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>26</v>
@@ -5163,21 +5169,21 @@
         <v>27</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>27</v>
@@ -5185,13 +5191,13 @@
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E97" s="21" t="s">
         <v>27</v>
@@ -5199,10 +5205,10 @@
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>26</v>
@@ -5211,47 +5217,47 @@
         <v>27</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D99" s="27"/>
       <c r="E99" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D100" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>26</v>
@@ -5260,74 +5266,74 @@
         <v>27</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>27</v>
@@ -5335,13 +5341,13 @@
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D107" s="22" t="s">
         <v>31</v>
@@ -5350,18 +5356,18 @@
         <v>27</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D108" s="22" t="s">
         <v>31</v>
@@ -5370,18 +5376,18 @@
         <v>27</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D109" s="22" t="s">
         <v>31</v>
@@ -5392,13 +5398,13 @@
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D110" s="22" t="s">
         <v>31</v>
@@ -5409,10 +5415,10 @@
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C111" s="31"/>
       <c r="D111" s="29">
@@ -5423,10 +5429,10 @@
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C112" s="34" t="s">
         <v>26</v>
@@ -5441,13 +5447,13 @@
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B113" s="33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C113" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="21" t="s">
@@ -5457,10 +5463,10 @@
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B114" s="33" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C114" s="33" t="s">
         <v>26</v>
@@ -5475,10 +5481,10 @@
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C115" s="31"/>
       <c r="D115" s="29">
@@ -5492,7 +5498,7 @@
         <v>24</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C116" s="34" t="s">
         <v>26</v>
@@ -5505,10 +5511,10 @@
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C117" s="34" t="s">
         <v>30</v>
@@ -5523,10 +5529,10 @@
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>26</v>
@@ -5539,13 +5545,13 @@
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C119" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="21" t="s">
@@ -5555,16 +5561,16 @@
     </row>
     <row r="120">
       <c r="A120" s="33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C120" s="33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D120" s="36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E120" s="37" t="s">
         <v>27</v>
@@ -5573,16 +5579,16 @@
     </row>
     <row r="121">
       <c r="A121" s="33" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C121" s="33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D121" s="27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E121" s="37" t="s">
         <v>27</v>
@@ -5591,16 +5597,16 @@
     </row>
     <row r="122">
       <c r="A122" s="33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D122" s="27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E122" s="37" t="s">
         <v>27</v>
@@ -6594,340 +6600,340 @@
         <v>38</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S1" s="39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U1" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V1" s="39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W1" s="39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X1" s="39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z1" s="39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC1" s="39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD1" s="39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE1" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF1" s="39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG1" s="39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AH1" s="39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AI1" s="39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ1" s="39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK1" s="39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL1" s="39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM1" s="39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AN1" s="39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AO1" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP1" s="39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AQ1" s="39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AR1" s="39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AS1" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AT1" s="39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AU1" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AV1" s="39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AW1" s="39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX1" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AY1" s="39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AZ1" s="39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BA1" s="39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BB1" s="39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BC1" s="39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BD1" s="39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BE1" s="39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BF1" s="39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BG1" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BH1" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BI1" s="39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BJ1" s="39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BK1" s="39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BL1" s="39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BM1" s="39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BN1" s="39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BO1" s="39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BP1" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BQ1" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BR1" s="39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BS1" s="39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BT1" s="39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BU1" s="39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BV1" s="39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BW1" s="39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BX1" s="39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BY1" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BZ1" s="39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CA1" s="39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CB1" s="39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CC1" s="39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CD1" s="39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CE1" s="39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="CF1" s="39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CG1" s="39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CH1" s="39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CI1" s="39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CJ1" s="39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="CK1" s="39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="CL1" s="39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CM1" s="39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="CN1" s="39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CO1" s="39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CP1" s="39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CQ1" s="39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CR1" s="39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CS1" s="39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CT1" s="39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CU1" s="39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CV1" s="39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CW1" s="39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CX1" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CY1" s="39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CZ1" s="39" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="DA1" s="39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="DB1" s="39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DC1" s="39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DD1" s="39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DE1" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="DF1" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="DG1" s="40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="DH1" s="40" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="DI1" s="40" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="DJ1" s="40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="DK1" s="40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="DL1" s="40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="DM1" s="40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="DN1" s="40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
@@ -6938,7 +6944,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>9</v>
@@ -6950,16 +6956,16 @@
         <v>9</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K2" s="41" t="s">
         <v>9</v>
@@ -6968,42 +6974,42 @@
         <v>9</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N2" s="41"/>
       <c r="O2" s="41"/>
       <c r="P2" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R2" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S2" s="43" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>9</v>
       </c>
       <c r="U2" s="43" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="V2" s="43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W2" s="43" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="X2" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z2" s="41" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA2" s="41" t="s">
         <v>9</v>
@@ -7096,7 +7102,7 @@
         <v>9</v>
       </c>
       <c r="BE2" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BF2" s="41" t="s">
         <v>9</v>
@@ -7153,7 +7159,7 @@
         <v>9</v>
       </c>
       <c r="BX2" s="43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BY2" s="41" t="s">
         <v>9</v>
@@ -7216,25 +7222,25 @@
         <v>9</v>
       </c>
       <c r="CS2" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CT2" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CU2" s="41" t="s">
         <v>9</v>
       </c>
       <c r="CV2" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CW2" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CX2" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CY2" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CZ2" s="41" t="s">
         <v>9</v>
@@ -7264,13 +7270,13 @@
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>9</v>
@@ -7285,7 +7291,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I3" s="41" t="s">
         <v>9</v>
@@ -7318,7 +7324,7 @@
         <v>9</v>
       </c>
       <c r="S3" s="43" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T3" s="41" t="s">
         <v>9</v>
@@ -7477,7 +7483,7 @@
         <v>9</v>
       </c>
       <c r="BT3" s="43" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BU3" s="41" t="s">
         <v>9</v>
@@ -7558,7 +7564,7 @@
         <v>9</v>
       </c>
       <c r="CU3" s="43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="CV3" s="41" t="s">
         <v>9</v>
@@ -7600,17 +7606,17 @@
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F4" s="41" t="s">
         <v>9</v>
@@ -7637,10 +7643,10 @@
         <v>9</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O4" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P4" s="41" t="s">
         <v>9</v>
@@ -7932,7 +7938,7 @@
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -7972,7 +7978,7 @@
       <c r="AG5" s="41"/>
       <c r="AH5" s="41"/>
       <c r="AI5" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AJ5" s="41"/>
       <c r="AK5" s="41"/>
@@ -8000,7 +8006,7 @@
       <c r="BG5" s="41"/>
       <c r="BH5" s="41"/>
       <c r="BI5" s="43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BJ5" s="41"/>
       <c r="BK5" s="41"/>
@@ -8016,7 +8022,7 @@
       <c r="BU5" s="41"/>
       <c r="BV5" s="41"/>
       <c r="BW5" s="43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="BX5" s="41"/>
       <c r="BY5" s="41"/>
@@ -8064,7 +8070,7 @@
     </row>
     <row r="6">
       <c r="A6" s="45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -8073,13 +8079,13 @@
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
@@ -8090,48 +8096,48 @@
       <c r="Q6" s="44"/>
       <c r="R6" s="44"/>
       <c r="S6" s="43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T6" s="44"/>
       <c r="U6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V6" s="44"/>
       <c r="W6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="X6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y6" s="44"/>
       <c r="Z6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA6" s="44"/>
       <c r="AB6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC6" s="45" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AD6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AE6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AH6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AI6" s="44"/>
       <c r="AJ6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK6" s="44"/>
       <c r="AL6" s="44"/>
@@ -8153,7 +8159,7 @@
       <c r="BB6" s="44"/>
       <c r="BC6" s="44"/>
       <c r="BD6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="BE6" s="44"/>
       <c r="BF6" s="44"/>
@@ -8161,10 +8167,10 @@
       <c r="BH6" s="44"/>
       <c r="BI6" s="44"/>
       <c r="BJ6" s="45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BK6" s="45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BL6" s="44"/>
       <c r="BM6" s="44"/>
@@ -8212,39 +8218,39 @@
       <c r="DC6" s="44"/>
       <c r="DD6" s="44"/>
       <c r="DE6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="DF6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="DG6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="DH6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="DI6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="DJ6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="DK6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="DL6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="DM6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="DN6" s="45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>9</v>
@@ -8580,16 +8586,16 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E8" s="22" t="str">
         <f t="shared" ref="E8:E12" si="1">B8</f>
@@ -8599,70 +8605,70 @@
         <v>1.0</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H8" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="I8" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="J8" s="52" t="s">
+      <c r="M8" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="N8" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="O8" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="S8" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="U8" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="N8" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="O8" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="R8" s="19" t="s">
+      <c r="V8" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="S8" s="52" t="s">
-        <v>337</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="U8" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="V8" s="19" t="s">
-        <v>335</v>
-      </c>
       <c r="W8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z8" s="52" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA8" s="49">
         <v>1.0</v>
       </c>
       <c r="AB8" s="52" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC8" s="49" t="s">
         <v>23</v>
@@ -8677,7 +8683,7 @@
         <v>1.0</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AH8" s="53">
         <v>43832.0</v>
@@ -8722,10 +8728,10 @@
         <v>1000.0</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AW8" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AX8" s="53">
         <v>43832.0</v>
@@ -8746,35 +8752,35 @@
         <v>0.3645833333333333</v>
       </c>
       <c r="BD8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BE8" s="56"/>
       <c r="BF8" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BG8" s="56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BH8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BI8" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BJ8" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BL8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BM8" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BN8" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="BO8" s="53">
         <v>43832.0</v>
@@ -8792,19 +8798,19 @@
         <v>1.0</v>
       </c>
       <c r="BT8" s="19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="BU8" s="19">
         <v>1.0</v>
       </c>
       <c r="BV8" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BW8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BX8" s="52" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="BY8" s="53">
         <v>43831.0</v>
@@ -8825,70 +8831,70 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CF8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CG8" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CH8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CI8" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="CJ8" s="19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="CK8" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="CL8" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CM8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CN8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CO8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CP8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CQ8" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CR8" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CS8" s="58"/>
       <c r="CT8" s="56"/>
       <c r="CU8" s="59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CV8" s="56"/>
       <c r="CW8" s="56"/>
       <c r="CX8" s="56"/>
       <c r="CY8" s="56"/>
       <c r="CZ8" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DA8" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DB8" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DC8" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DD8" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE8" s="60"/>
       <c r="DF8" s="60"/>
@@ -8903,16 +8909,16 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="48" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E9" s="22" t="str">
         <f t="shared" si="1"/>
@@ -8922,70 +8928,70 @@
         <v>1.0</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J9" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="N9" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="O9" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="S9" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="U9" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="O9" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="R9" s="19" t="s">
+      <c r="V9" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="S9" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="U9" s="52" t="s">
-        <v>354</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>335</v>
-      </c>
       <c r="W9" s="19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z9" s="52" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA9" s="49">
         <v>1.0</v>
       </c>
       <c r="AB9" s="52" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC9" s="49" t="s">
         <v>23</v>
@@ -9000,7 +9006,7 @@
         <v>2.0</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AH9" s="53">
         <v>44206.0</v>
@@ -9045,10 +9051,10 @@
         <v>2000.0</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AX9" s="53">
         <v>44206.0</v>
@@ -9069,35 +9075,35 @@
         <v>0.40625</v>
       </c>
       <c r="BD9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BE9" s="56"/>
       <c r="BF9" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BG9" s="56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BH9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BI9" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BJ9" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BL9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BM9" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BN9" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="BO9" s="53">
         <v>44206.0</v>
@@ -9115,19 +9121,19 @@
         <v>1.0</v>
       </c>
       <c r="BT9" s="19" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BU9" s="19">
         <v>2.0</v>
       </c>
       <c r="BV9" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="BW9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BX9" s="52" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="BY9" s="53">
         <v>44197.0</v>
@@ -9148,70 +9154,70 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CF9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CG9" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CH9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CI9" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CJ9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CK9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CL9" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CM9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CN9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CO9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CP9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CQ9" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="CR9" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CS9" s="58"/>
       <c r="CT9" s="56"/>
       <c r="CU9" s="59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="CV9" s="56"/>
       <c r="CW9" s="56"/>
       <c r="CX9" s="56"/>
       <c r="CY9" s="56"/>
       <c r="CZ9" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DA9" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DB9" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DC9" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DD9" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE9" s="60"/>
       <c r="DF9" s="60"/>
@@ -9226,16 +9232,16 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="48" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E10" s="22" t="str">
         <f t="shared" si="1"/>
@@ -9245,70 +9251,70 @@
         <v>1.0</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J10" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="N10" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="S10" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="U10" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="N10" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="O10" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="R10" s="19" t="s">
+      <c r="V10" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="S10" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="T10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="U10" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="V10" s="19" t="s">
-        <v>335</v>
-      </c>
       <c r="W10" s="19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z10" s="52" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA10" s="49">
         <v>1.0</v>
       </c>
       <c r="AB10" s="52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AC10" s="49" t="s">
         <v>23</v>
@@ -9323,7 +9329,7 @@
         <v>3.0</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AH10" s="53">
         <v>44592.0</v>
@@ -9368,10 +9374,10 @@
         <v>3000.0</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AX10" s="53">
         <v>44592.0</v>
@@ -9392,35 +9398,35 @@
         <v>0.5729166666666666</v>
       </c>
       <c r="BD10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BE10" s="56"/>
       <c r="BF10" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BG10" s="56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BH10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BI10" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BJ10" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BL10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BM10" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BN10" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="BO10" s="53">
         <v>44592.0</v>
@@ -9438,19 +9444,19 @@
         <v>1.0</v>
       </c>
       <c r="BT10" s="19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BU10" s="19">
         <v>3.0</v>
       </c>
       <c r="BV10" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BW10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BX10" s="52" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="BY10" s="53">
         <v>44562.0</v>
@@ -9471,70 +9477,70 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CF10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CG10" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CH10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CI10" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="CJ10" s="19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="CK10" s="19" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="CL10" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CM10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CN10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CO10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CP10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CQ10" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CR10" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CS10" s="58"/>
       <c r="CT10" s="56"/>
       <c r="CU10" s="59" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="CV10" s="56"/>
       <c r="CW10" s="56"/>
       <c r="CX10" s="56"/>
       <c r="CY10" s="56"/>
       <c r="CZ10" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DA10" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DB10" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DC10" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DD10" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DF10" s="60"/>
       <c r="DG10" s="60"/>
@@ -9547,16 +9553,16 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="48" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B11" s="61">
         <v>1000.0</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" si="1"/>
@@ -9566,25 +9572,25 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J11" s="52" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N11" s="51">
         <v>1000.0</v>
@@ -9593,43 +9599,43 @@
         <v>2000.0</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R11" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="S11" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="T11" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="S11" s="52" t="s">
-        <v>390</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>335</v>
-      </c>
       <c r="U11" s="52" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="W11" s="52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z11" s="52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA11" s="49">
         <v>1.0</v>
       </c>
       <c r="AB11" s="52" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AC11" s="49" t="s">
         <v>23</v>
@@ -9644,7 +9650,7 @@
         <v>4.0</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AH11" s="53">
         <v>44958.0</v>
@@ -9689,10 +9695,10 @@
         <v>4000.0</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AW11" s="19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AX11" s="53">
         <v>44958.0</v>
@@ -9713,35 +9719,35 @@
         <v>0.6145833333333334</v>
       </c>
       <c r="BD11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BE11" s="56"/>
       <c r="BF11" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BG11" s="56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BH11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BI11" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BJ11" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BK11" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BL11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BM11" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BN11" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="BO11" s="53">
         <v>44958.0</v>
@@ -9759,19 +9765,19 @@
         <v>1.0</v>
       </c>
       <c r="BT11" s="19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="BU11" s="19">
         <v>4.0</v>
       </c>
       <c r="BV11" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="BW11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BX11" s="52" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="BY11" s="53">
         <v>44927.0</v>
@@ -9792,91 +9798,91 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CF11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CG11" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CH11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CI11" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CJ11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CK11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CL11" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CM11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CN11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CO11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CP11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CQ11" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="CR11" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CS11" s="58"/>
       <c r="CT11" s="56"/>
       <c r="CU11" s="59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CV11" s="56"/>
       <c r="CW11" s="56"/>
       <c r="CX11" s="56"/>
       <c r="CY11" s="56"/>
       <c r="CZ11" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DA11" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DB11" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DC11" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DD11" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE11" s="62" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="DF11" s="62" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="DG11" s="62" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="DH11" s="62" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="DI11" s="62" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="DJ11" s="62" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DK11" s="62" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="DL11" s="60"/>
       <c r="DM11" s="60"/>
@@ -9884,16 +9890,16 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="48" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B12" s="61">
         <v>1001.0</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="1"/>
@@ -9903,25 +9909,25 @@
         <v>1.0</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N12" s="51">
         <v>1001.0</v>
@@ -9930,43 +9936,43 @@
         <v>2001.0</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R12" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="S12" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="T12" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="S12" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>335</v>
-      </c>
       <c r="U12" s="52" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="W12" s="52" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z12" s="52" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA12" s="49">
         <v>1.0</v>
       </c>
       <c r="AB12" s="52" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AC12" s="49" t="s">
         <v>23</v>
@@ -9981,7 +9987,7 @@
         <v>5.0</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AH12" s="53">
         <v>43831.0</v>
@@ -10026,10 +10032,10 @@
         <v>5000.0</v>
       </c>
       <c r="AV12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AW12" s="19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AX12" s="53">
         <v>43831.0</v>
@@ -10050,35 +10056,35 @@
         <v>0.40625</v>
       </c>
       <c r="BD12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BE12" s="56"/>
       <c r="BF12" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BG12" s="56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BH12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BI12" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BJ12" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BK12" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BL12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BM12" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BN12" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="BO12" s="53">
         <v>43831.0</v>
@@ -10096,19 +10102,19 @@
         <v>1.0</v>
       </c>
       <c r="BT12" s="19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BU12" s="19">
         <v>3.0</v>
       </c>
       <c r="BV12" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="BW12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BX12" s="52" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BY12" s="53">
         <v>43831.0</v>
@@ -10129,70 +10135,70 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="CE12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CF12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CG12" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="CH12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CI12" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="CJ12" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="CK12" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="CL12" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="CM12" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="CN12" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="CO12" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="CP12" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="CQ12" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="CK12" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="CL12" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="CM12" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="CN12" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="CO12" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="CP12" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="CQ12" s="19" t="s">
-        <v>348</v>
-      </c>
       <c r="CR12" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="CS12" s="58"/>
       <c r="CT12" s="56"/>
       <c r="CU12" s="59" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="CV12" s="56"/>
       <c r="CW12" s="56"/>
       <c r="CX12" s="56"/>
       <c r="CY12" s="56"/>
       <c r="CZ12" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DA12" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DB12" s="51" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DC12" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DD12" s="57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DE12" s="60"/>
       <c r="DF12" s="60"/>
@@ -10207,7 +10213,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="48" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B13" s="61">
         <v>1002.0</v>
@@ -10331,7 +10337,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="48" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B14" s="61">
         <v>1003.0</v>
@@ -11892,16 +11898,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="65" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
@@ -11936,7 +11942,7 @@
     </row>
     <row r="3">
       <c r="A3" s="67" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="68"/>
       <c r="C3" s="69"/>
@@ -11944,27 +11950,27 @@
     </row>
     <row r="4">
       <c r="A4" s="67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
     </row>
     <row r="5">
       <c r="A5" s="67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="70" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D5" s="69"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B6" s="72"/>
       <c r="C6" s="73"/>
@@ -11972,58 +11978,58 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="74" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B7" s="75">
         <v>1000.0</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="74" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B8" s="61">
         <v>2000.0</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="74" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B9" s="61">
         <v>1001.0</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="74" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B10" s="61">
         <v>2001.0</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -13468,28 +13474,28 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="65" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
@@ -13516,7 +13522,7 @@
       </c>
       <c r="B2" s="68"/>
       <c r="C2" s="70" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D2" s="69"/>
       <c r="E2" s="69"/>
@@ -13526,7 +13532,7 @@
     </row>
     <row r="3">
       <c r="A3" s="67" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="68"/>
       <c r="C3" s="69"/>
@@ -13538,7 +13544,7 @@
     </row>
     <row r="4">
       <c r="A4" s="67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="69"/>
@@ -13550,37 +13556,37 @@
     </row>
     <row r="5">
       <c r="A5" s="67" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="70"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="70" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G5" s="69"/>
       <c r="H5" s="70"/>
     </row>
     <row r="6">
       <c r="A6" s="67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="70" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
       <c r="H6" s="70" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B7" s="72"/>
       <c r="C7" s="73"/>
@@ -15041,46 +15047,46 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="76" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="33" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1"/>
@@ -16104,211 +16110,211 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="78" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="81" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="82">
         <v>0.0</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="81" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B3" s="82">
         <v>1.0</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="81" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B4" s="82">
         <v>2.0</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B6" s="84">
         <v>-1.0</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B7" s="84">
         <v>0.0</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B8" s="84">
         <v>1.0</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B9" s="84">
         <v>2.0</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B10" s="84">
         <v>3.0</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B11" s="84">
         <v>4.0</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B12" s="84">
         <v>5.0</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B13" s="84">
         <v>6.0</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B14" s="84">
         <v>7.0</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="81" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="81" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="81" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="83" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="83" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -16340,7 +16346,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="38"/>
       <c r="B1" s="39" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
@@ -16375,25 +16381,25 @@
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="41"/>
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B4" s="41"/>
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" s="41"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B6" s="46"/>
     </row>
